--- a/modelos/OBABOL4471021/OBABOL4471021_Sell Out_metricas.xlsx
+++ b/modelos/OBABOL4471021/OBABOL4471021_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,59 +473,59 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45017</v>
+        <v>45013</v>
       </c>
       <c r="B2" t="n">
-        <v>53.48793825274105</v>
+        <v>84.64537348123247</v>
       </c>
       <c r="C2" t="n">
-        <v>25.78582561388024</v>
+        <v>56.95679419471679</v>
       </c>
       <c r="D2" t="n">
-        <v>82.89353901256051</v>
+        <v>110.1495448660897</v>
       </c>
       <c r="E2" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45013</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45023</v>
+        <v>45017</v>
       </c>
       <c r="B3" t="n">
-        <v>67.95529175880687</v>
+        <v>53.29336697412386</v>
       </c>
       <c r="C3" t="n">
-        <v>40.3513817825452</v>
+        <v>24.41861104619587</v>
       </c>
       <c r="D3" t="n">
-        <v>96.0051396878894</v>
+        <v>78.93696648695403</v>
       </c>
       <c r="E3" t="n">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45027</v>
+        <v>45023</v>
       </c>
       <c r="B4" t="n">
-        <v>74.20436417019999</v>
+        <v>68.21988305807275</v>
       </c>
       <c r="C4" t="n">
-        <v>46.13798248457225</v>
+        <v>41.41837854644357</v>
       </c>
       <c r="D4" t="n">
-        <v>100.5879319956534</v>
+        <v>94.27632591403849</v>
       </c>
       <c r="E4" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>45020</v>
@@ -533,101 +533,121 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45033</v>
+        <v>45027</v>
       </c>
       <c r="B5" t="n">
-        <v>70.82296515459669</v>
+        <v>73.76235826024433</v>
       </c>
       <c r="C5" t="n">
-        <v>44.16041555269452</v>
+        <v>48.88498000966884</v>
       </c>
       <c r="D5" t="n">
-        <v>101.4177759793838</v>
+        <v>102.2787899470804</v>
       </c>
       <c r="E5" t="n">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45027</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45040</v>
+        <v>45033</v>
       </c>
       <c r="B6" t="n">
-        <v>72.35318638479612</v>
+        <v>68.24901275177945</v>
       </c>
       <c r="C6" t="n">
-        <v>45.25797086582984</v>
+        <v>40.42204761180132</v>
       </c>
       <c r="D6" t="n">
-        <v>99.77962466428556</v>
+        <v>94.74777074683951</v>
       </c>
       <c r="E6" t="n">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45034</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45048</v>
+        <v>45040</v>
       </c>
       <c r="B7" t="n">
-        <v>73.71059117267546</v>
+        <v>70.3942564657968</v>
       </c>
       <c r="C7" t="n">
-        <v>47.30218135732106</v>
+        <v>44.3500542741712</v>
       </c>
       <c r="D7" t="n">
-        <v>103.0648150739071</v>
+        <v>97.04479321738174</v>
       </c>
       <c r="E7" t="n">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45041</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45055</v>
+        <v>45048</v>
       </c>
       <c r="B8" t="n">
-        <v>73.90883935443347</v>
+        <v>73.47787189987241</v>
       </c>
       <c r="C8" t="n">
-        <v>45.74696743765112</v>
+        <v>47.61336051244355</v>
       </c>
       <c r="D8" t="n">
-        <v>100.1765674255948</v>
+        <v>102.8032128861434</v>
       </c>
       <c r="E8" t="n">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45048</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B9" t="n">
+        <v>73.84759418625725</v>
+      </c>
+      <c r="C9" t="n">
+        <v>46.62275112182842</v>
+      </c>
+      <c r="D9" t="n">
+        <v>100.9135143657551</v>
+      </c>
+      <c r="E9" t="n">
+        <v>111</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="B9" t="n">
-        <v>77.57117481539657</v>
-      </c>
-      <c r="C9" t="n">
-        <v>49.11083180228917</v>
-      </c>
-      <c r="D9" t="n">
-        <v>105.785170603484</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="B10" t="n">
+        <v>77.73572344405662</v>
+      </c>
+      <c r="C10" t="n">
+        <v>50.95482624829165</v>
+      </c>
+      <c r="D10" t="n">
+        <v>107.2339273401074</v>
+      </c>
+      <c r="E10" t="n">
         <v>37</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F10" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -697,22 +717,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>226.3432460626246</v>
+        <v>218.4518568170448</v>
       </c>
       <c r="C2" t="n">
-        <v>15.04470824119313</v>
+        <v>14.78011694192725</v>
       </c>
       <c r="D2" t="n">
-        <v>15.04470824119313</v>
+        <v>14.78011694192725</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1812615450746161</v>
+        <v>0.178073698095509</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1812615450746161</v>
+        <v>0.178073698095509</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1993266756786671</v>
+        <v>0.1954784865988986</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -723,22 +743,22 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>505.707366859094</v>
+        <v>496.9942110429562</v>
       </c>
       <c r="C3" t="n">
-        <v>22.48793825274105</v>
+        <v>22.29336697412386</v>
       </c>
       <c r="D3" t="n">
-        <v>22.48793825274105</v>
+        <v>22.29336697412386</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7254173629916466</v>
+        <v>0.7191408701330276</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7254173629916466</v>
+        <v>0.7191408701330276</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5323348804055227</v>
+        <v>0.5289471229917156</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -749,22 +769,22 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>575.8291552043794</v>
+        <v>560.665674265966</v>
       </c>
       <c r="C4" t="n">
-        <v>23.99644046946087</v>
+        <v>23.67837989107291</v>
       </c>
       <c r="D4" t="n">
-        <v>22.76511061509972</v>
+        <v>23.07262185700868</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4495860316444359</v>
+        <v>0.4412302769218976</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4495860316444359</v>
+        <v>0.4412302769218976</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3622118137033044</v>
+        <v>0.367710919696241</v>
       </c>
       <c r="H4" t="n">
         <v>0.5</v>
@@ -775,25 +795,25 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>879.8783889646447</v>
+        <v>1042.404826126152</v>
       </c>
       <c r="C5" t="n">
-        <v>29.6627441239789</v>
+        <v>32.28629471038992</v>
       </c>
       <c r="D5" t="n">
-        <v>26.93684502952192</v>
+        <v>29.85865451578302</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4409394178560779</v>
+        <v>0.5399975672409734</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2723732354701483</v>
+        <v>0.3347063586823671</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3688176176810478</v>
+        <v>0.4237709163544312</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBABOL4471021/OBABOL4471021_Sell Out_metricas.xlsx
+++ b/modelos/OBABOL4471021/OBABOL4471021_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,59 +473,59 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B2" t="n">
+        <v>52.80851190622758</v>
+      </c>
+      <c r="C2" t="n">
+        <v>24.97386159525994</v>
+      </c>
+      <c r="D2" t="n">
+        <v>81.30077349857193</v>
+      </c>
+      <c r="E2" t="n">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>45013</v>
-      </c>
-      <c r="B2" t="n">
-        <v>84.64537348123247</v>
-      </c>
-      <c r="C2" t="n">
-        <v>56.95679419471679</v>
-      </c>
-      <c r="D2" t="n">
-        <v>110.1495448660897</v>
-      </c>
-      <c r="E2" t="n">
-        <v>44</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>45006</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45017</v>
+        <v>45023</v>
       </c>
       <c r="B3" t="n">
-        <v>53.29336697412386</v>
+        <v>68.10611887756153</v>
       </c>
       <c r="C3" t="n">
-        <v>24.41861104619587</v>
+        <v>38.27144562267883</v>
       </c>
       <c r="D3" t="n">
-        <v>78.93696648695403</v>
+        <v>95.76383705745486</v>
       </c>
       <c r="E3" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45013</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45023</v>
+        <v>45027</v>
       </c>
       <c r="B4" t="n">
-        <v>68.21988305807275</v>
+        <v>73.60273050525132</v>
       </c>
       <c r="C4" t="n">
-        <v>41.41837854644357</v>
+        <v>46.13243497523554</v>
       </c>
       <c r="D4" t="n">
-        <v>94.27632591403849</v>
+        <v>101.9050801042158</v>
       </c>
       <c r="E4" t="n">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>45020</v>
@@ -533,121 +533,101 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="B5" t="n">
+        <v>71.82072808835383</v>
+      </c>
+      <c r="C5" t="n">
+        <v>43.04651379816762</v>
+      </c>
+      <c r="D5" t="n">
+        <v>100.4032805585072</v>
+      </c>
+      <c r="E5" t="n">
+        <v>86</v>
+      </c>
+      <c r="F5" s="2" t="n">
         <v>45027</v>
-      </c>
-      <c r="B5" t="n">
-        <v>73.76235826024433</v>
-      </c>
-      <c r="C5" t="n">
-        <v>48.88498000966884</v>
-      </c>
-      <c r="D5" t="n">
-        <v>102.2787899470804</v>
-      </c>
-      <c r="E5" t="n">
-        <v>94</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>45020</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45033</v>
+        <v>45040</v>
       </c>
       <c r="B6" t="n">
-        <v>68.24901275177945</v>
+        <v>73.21836541216734</v>
       </c>
       <c r="C6" t="n">
-        <v>40.42204761180132</v>
+        <v>46.51150897323497</v>
       </c>
       <c r="D6" t="n">
-        <v>94.74777074683951</v>
+        <v>99.33213613978621</v>
       </c>
       <c r="E6" t="n">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45027</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45040</v>
+        <v>45048</v>
       </c>
       <c r="B7" t="n">
-        <v>70.3942564657968</v>
+        <v>72.9813981592275</v>
       </c>
       <c r="C7" t="n">
-        <v>44.3500542741712</v>
+        <v>43.54811624640993</v>
       </c>
       <c r="D7" t="n">
-        <v>97.04479321738174</v>
+        <v>100.6512013410526</v>
       </c>
       <c r="E7" t="n">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45034</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B8" t="n">
+        <v>73.52944162519728</v>
+      </c>
+      <c r="C8" t="n">
+        <v>47.33770293842184</v>
+      </c>
+      <c r="D8" t="n">
+        <v>100.7200642623077</v>
+      </c>
+      <c r="E8" t="n">
+        <v>111</v>
+      </c>
+      <c r="F8" s="2" t="n">
         <v>45048</v>
-      </c>
-      <c r="B8" t="n">
-        <v>73.47787189987241</v>
-      </c>
-      <c r="C8" t="n">
-        <v>47.61336051244355</v>
-      </c>
-      <c r="D8" t="n">
-        <v>102.8032128861434</v>
-      </c>
-      <c r="E8" t="n">
-        <v>84</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>45041</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45055</v>
+        <v>45062</v>
       </c>
       <c r="B9" t="n">
-        <v>73.84759418625725</v>
+        <v>77.20607954799138</v>
       </c>
       <c r="C9" t="n">
-        <v>46.62275112182842</v>
+        <v>49.93365943309161</v>
       </c>
       <c r="D9" t="n">
-        <v>100.9135143657551</v>
+        <v>104.864934706605</v>
       </c>
       <c r="E9" t="n">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45048</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="B10" t="n">
-        <v>77.73572344405662</v>
-      </c>
-      <c r="C10" t="n">
-        <v>50.95482624829165</v>
-      </c>
-      <c r="D10" t="n">
-        <v>107.2339273401074</v>
-      </c>
-      <c r="E10" t="n">
-        <v>37</v>
-      </c>
-      <c r="F10" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -717,22 +697,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>218.4518568170448</v>
+        <v>221.8276948893291</v>
       </c>
       <c r="C2" t="n">
-        <v>14.78011694192725</v>
+        <v>14.89388112243847</v>
       </c>
       <c r="D2" t="n">
-        <v>14.78011694192725</v>
+        <v>14.89388112243847</v>
       </c>
       <c r="E2" t="n">
-        <v>0.178073698095509</v>
+        <v>0.1794443508727527</v>
       </c>
       <c r="F2" t="n">
-        <v>0.178073698095509</v>
+        <v>0.1794443508727527</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1954784865988986</v>
+        <v>0.1971314098075235</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -743,22 +723,22 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>496.9942110429562</v>
+        <v>475.6111915640701</v>
       </c>
       <c r="C3" t="n">
-        <v>22.29336697412386</v>
+        <v>21.80851190622758</v>
       </c>
       <c r="D3" t="n">
-        <v>22.29336697412386</v>
+        <v>21.80851190622758</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7191408701330276</v>
+        <v>0.7035003840718574</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7191408701330276</v>
+        <v>0.7035003840718574</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5289471229917156</v>
+        <v>0.5204366814346706</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -769,22 +749,22 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>560.665674265966</v>
+        <v>587.8190454760022</v>
       </c>
       <c r="C4" t="n">
-        <v>23.67837989107291</v>
+        <v>24.24497979945544</v>
       </c>
       <c r="D4" t="n">
-        <v>23.07262185700868</v>
+        <v>22.69881866190676</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4412302769218976</v>
+        <v>0.4540848346809982</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4412302769218976</v>
+        <v>0.4540848346809982</v>
       </c>
       <c r="G4" t="n">
-        <v>0.367710919696241</v>
+        <v>0.3607937273863235</v>
       </c>
       <c r="H4" t="n">
         <v>0.5</v>
@@ -795,25 +775,25 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>1042.404826126152</v>
+        <v>889.5074417264473</v>
       </c>
       <c r="C5" t="n">
-        <v>32.28629471038992</v>
+        <v>29.82461134242066</v>
       </c>
       <c r="D5" t="n">
-        <v>29.85865451578302</v>
+        <v>27.27312731457883</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5399975672409734</v>
+        <v>0.4430973641677161</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3347063586823671</v>
+        <v>0.2772824133193674</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4237709163544312</v>
+        <v>0.3734995775468577</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBABOL4471021/OBABOL4471021_Sell Out_metricas.xlsx
+++ b/modelos/OBABOL4471021/OBABOL4471021_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,59 +473,59 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45017</v>
+        <v>45013</v>
       </c>
       <c r="B2" t="n">
-        <v>52.80851190622758</v>
+        <v>84.64537347391419</v>
       </c>
       <c r="C2" t="n">
-        <v>24.97386159525994</v>
+        <v>57.5993982546314</v>
       </c>
       <c r="D2" t="n">
-        <v>81.30077349857193</v>
+        <v>111.7111087852427</v>
       </c>
       <c r="E2" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45013</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45023</v>
+        <v>45017</v>
       </c>
       <c r="B3" t="n">
-        <v>68.10611887756153</v>
+        <v>53.29336697411834</v>
       </c>
       <c r="C3" t="n">
-        <v>38.27144562267883</v>
+        <v>27.08240893427078</v>
       </c>
       <c r="D3" t="n">
-        <v>95.76383705745486</v>
+        <v>81.86396532063799</v>
       </c>
       <c r="E3" t="n">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45027</v>
+        <v>45023</v>
       </c>
       <c r="B4" t="n">
-        <v>73.60273050525132</v>
+        <v>68.21988305807398</v>
       </c>
       <c r="C4" t="n">
-        <v>46.13243497523554</v>
+        <v>41.69261159086798</v>
       </c>
       <c r="D4" t="n">
-        <v>101.9050801042158</v>
+        <v>95.62804364588574</v>
       </c>
       <c r="E4" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>45020</v>
@@ -533,101 +533,121 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45033</v>
+        <v>45027</v>
       </c>
       <c r="B5" t="n">
-        <v>71.82072808835383</v>
+        <v>73.76235826024558</v>
       </c>
       <c r="C5" t="n">
-        <v>43.04651379816762</v>
+        <v>47.07571385149147</v>
       </c>
       <c r="D5" t="n">
-        <v>100.4032805585072</v>
+        <v>99.28532691815977</v>
       </c>
       <c r="E5" t="n">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45027</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45040</v>
+        <v>45033</v>
       </c>
       <c r="B6" t="n">
-        <v>73.21836541216734</v>
+        <v>68.24901275177869</v>
       </c>
       <c r="C6" t="n">
-        <v>46.51150897323497</v>
+        <v>41.72192846035129</v>
       </c>
       <c r="D6" t="n">
-        <v>99.33213613978621</v>
+        <v>93.7635036507799</v>
       </c>
       <c r="E6" t="n">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45034</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45048</v>
+        <v>45040</v>
       </c>
       <c r="B7" t="n">
-        <v>72.9813981592275</v>
+        <v>70.3942564657964</v>
       </c>
       <c r="C7" t="n">
-        <v>43.54811624640993</v>
+        <v>41.71733924729762</v>
       </c>
       <c r="D7" t="n">
-        <v>100.6512013410526</v>
+        <v>94.96211709656995</v>
       </c>
       <c r="E7" t="n">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45041</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45055</v>
+        <v>45048</v>
       </c>
       <c r="B8" t="n">
-        <v>73.52944162519728</v>
+        <v>73.47787189986555</v>
       </c>
       <c r="C8" t="n">
-        <v>47.33770293842184</v>
+        <v>46.91286714669944</v>
       </c>
       <c r="D8" t="n">
-        <v>100.7200642623077</v>
+        <v>98.11668616080452</v>
       </c>
       <c r="E8" t="n">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45048</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B9" t="n">
+        <v>73.8475941862576</v>
+      </c>
+      <c r="C9" t="n">
+        <v>46.90513263268619</v>
+      </c>
+      <c r="D9" t="n">
+        <v>100.5691767728828</v>
+      </c>
+      <c r="E9" t="n">
+        <v>111</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="B9" t="n">
-        <v>77.20607954799138</v>
-      </c>
-      <c r="C9" t="n">
-        <v>49.93365943309161</v>
-      </c>
-      <c r="D9" t="n">
-        <v>104.864934706605</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="B10" t="n">
+        <v>77.73572344291269</v>
+      </c>
+      <c r="C10" t="n">
+        <v>50.7014254181183</v>
+      </c>
+      <c r="D10" t="n">
+        <v>103.0386841609956</v>
+      </c>
+      <c r="E10" t="n">
         <v>37</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F10" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -697,22 +717,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>221.8276948893291</v>
+        <v>218.4518568170087</v>
       </c>
       <c r="C2" t="n">
-        <v>14.89388112243847</v>
+        <v>14.78011694192602</v>
       </c>
       <c r="D2" t="n">
-        <v>14.89388112243847</v>
+        <v>14.78011694192602</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1794443508727527</v>
+        <v>0.1780736980954943</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1794443508727527</v>
+        <v>0.1780736980954943</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1971314098075235</v>
+        <v>0.1954784865988809</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -723,22 +743,22 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>475.6111915640701</v>
+        <v>496.9942110427104</v>
       </c>
       <c r="C3" t="n">
-        <v>21.80851190622758</v>
+        <v>22.29336697411834</v>
       </c>
       <c r="D3" t="n">
-        <v>21.80851190622758</v>
+        <v>22.29336697411834</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7035003840718574</v>
+        <v>0.7191408701328498</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7035003840718574</v>
+        <v>0.7191408701328498</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5204366814346706</v>
+        <v>0.5289471229916194</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -749,25 +769,25 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>587.8190454760022</v>
+        <v>560.6656742659682</v>
       </c>
       <c r="C4" t="n">
-        <v>24.24497979945544</v>
+        <v>23.67837989107296</v>
       </c>
       <c r="D4" t="n">
-        <v>22.69881866190676</v>
+        <v>23.07262185700885</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4540848346809982</v>
+        <v>0.4412302769218973</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4540848346809982</v>
+        <v>0.4412302769218973</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3607937273863235</v>
+        <v>0.3677109196962439</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -775,25 +795,25 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>889.5074417264473</v>
+        <v>1042.404825988545</v>
       </c>
       <c r="C5" t="n">
-        <v>29.82461134242066</v>
+        <v>32.28629470825887</v>
       </c>
       <c r="D5" t="n">
-        <v>27.27312731457883</v>
+        <v>29.85865451409163</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4430973641677161</v>
+        <v>0.5399975672015382</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2772824133193674</v>
+        <v>0.334706358682364</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3734995775468577</v>
+        <v>0.4237709163363079</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
     </row>
   </sheetData>
